--- a/★★★行程★★★/一日游/voucher/萤火虫洞 午餐.xlsx
+++ b/★★★行程★★★/一日游/voucher/萤火虫洞 午餐.xlsx
@@ -194,11 +194,11 @@
     </r>
   </si>
   <si>
-    <t># 919498</t>
+    <t># 925882</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Shi An</t>
+    <t>Lei Ting</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +829,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -984,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="19">
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="G10" s="9" t="str">
         <f>TEXT(F10,)</f>

--- a/★★★行程★★★/一日游/voucher/萤火虫洞 午餐.xlsx
+++ b/★★★行程★★★/一日游/voucher/萤火虫洞 午餐.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -134,9 +134,6 @@
     <t>Time:</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -194,11 +191,14 @@
     </r>
   </si>
   <si>
-    <t># 925882</t>
+    <t>AM</t>
+  </si>
+  <si>
+    <t># 948954</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Lei Ting</t>
+    <t>Li shuang</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +446,7 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -829,7 +829,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -984,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="19">
-        <v>42835</v>
+        <v>42855</v>
       </c>
       <c r="G10" s="9" t="str">
         <f>TEXT(F10,)</f>
@@ -1021,23 +1021,23 @@
         <v>26</v>
       </c>
       <c r="F12" s="21">
-        <v>0.47916666666666702</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="9"/>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="9"/>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="15" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>

--- a/★★★行程★★★/一日游/voucher/萤火虫洞 午餐.xlsx
+++ b/★★★行程★★★/一日游/voucher/萤火虫洞 午餐.xlsx
@@ -194,11 +194,11 @@
     <t>AM</t>
   </si>
   <si>
-    <t># 948954</t>
+    <t># 969523</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Li shuang</t>
+    <t>Chen tingting</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +829,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -984,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="19">
-        <v>42855</v>
+        <v>42875</v>
       </c>
       <c r="G10" s="9" t="str">
         <f>TEXT(F10,)</f>

--- a/★★★行程★★★/一日游/voucher/萤火虫洞 午餐.xlsx
+++ b/★★★行程★★★/一日游/voucher/萤火虫洞 午餐.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -194,12 +194,11 @@
     <t>AM</t>
   </si>
   <si>
-    <t># 969523</t>
+    <t># 969537</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Chen tingting</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>Cao le</t>
   </si>
 </sst>
 </file>
@@ -984,7 +983,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="19">
-        <v>42875</v>
+        <v>42884</v>
       </c>
       <c r="G10" s="9" t="str">
         <f>TEXT(F10,)</f>
